--- a/AAII_Financials/Quarterly/AWCA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AWCA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
   <si>
     <t>AWCA</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,54 +665,58 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42277</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42185</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42094</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -725,8 +729,8 @@
       <c r="F8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -740,8 +744,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -763,14 +770,17 @@
       <c r="I9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -792,14 +802,17 @@
       <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -811,8 +824,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -840,8 +854,11 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,8 +886,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -892,14 +912,17 @@
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -921,14 +944,17 @@
       <c r="I15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -937,8 +963,9 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -946,28 +973,31 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
       </c>
       <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J17" s="3">
         <v>100</v>
       </c>
       <c r="K17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -980,23 +1010,26 @@
       <c r="F18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1008,8 +1041,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1022,8 +1056,8 @@
       <c r="F20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1037,8 +1071,11 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1057,17 +1094,20 @@
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1095,37 +1135,43 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
         <v>0</v>
       </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
         <v>-100</v>
       </c>
       <c r="K23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1153,8 +1199,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,66 +1231,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
         <v>0</v>
       </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
         <v>-100</v>
       </c>
       <c r="K26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
         <v>0</v>
       </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
         <v>-100</v>
       </c>
       <c r="K27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1269,8 +1327,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1283,23 +1344,26 @@
       <c r="F29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-400</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L29" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1327,8 +1391,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1356,8 +1423,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1370,8 +1440,8 @@
       <c r="F32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
+      <c r="G32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -1385,37 +1455,43 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
         <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
         <v>-100</v>
       </c>
       <c r="I33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-500</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-100</v>
       </c>
       <c r="K33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1443,71 +1519,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
         <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
         <v>-100</v>
       </c>
       <c r="I35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-500</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-100</v>
       </c>
       <c r="K35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42277</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42185</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42094</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1519,8 +1604,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1532,8 +1618,9 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1546,8 +1633,8 @@
       <c r="F41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
+      <c r="G41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -1561,8 +1648,11 @@
       <c r="K41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1590,8 +1680,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1619,8 +1712,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1648,13 +1744,16 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -1677,13 +1776,16 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>0</v>
+      <c r="D46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -1706,8 +1808,11 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1735,8 +1840,11 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1758,14 +1866,17 @@
       <c r="I48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J48" s="3">
-        <v>0</v>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1793,8 +1904,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1822,8 +1936,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1851,8 +1968,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1880,8 +2000,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1909,13 +2032,16 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
-        <v>0</v>
+      <c r="D54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
@@ -1938,8 +2064,11 @@
       <c r="K54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1951,8 +2080,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1964,22 +2094,23 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
       <c r="F57" s="3">
         <v>0</v>
       </c>
       <c r="G57" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
@@ -1991,15 +2122,18 @@
         <v>200</v>
       </c>
       <c r="K57" s="3">
+        <v>200</v>
+      </c>
+      <c r="L57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -2007,8 +2141,8 @@
       <c r="F58" s="3">
         <v>0</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
+      <c r="G58" s="3">
+        <v>0</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>4</v>
@@ -2016,72 +2150,81 @@
       <c r="I58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J58" s="3">
-        <v>500</v>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K58" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
         <v>0</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
+      <c r="E59" s="3">
+        <v>0</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="3">
         <v>2100</v>
-      </c>
-      <c r="H59" s="3">
-        <v>2000</v>
       </c>
       <c r="I59" s="3">
         <v>2000</v>
       </c>
       <c r="J59" s="3">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="K59" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E60" s="3">
         <v>100</v>
       </c>
-      <c r="E60" s="3">
-        <v>0</v>
-      </c>
       <c r="F60" s="3">
         <v>0</v>
       </c>
       <c r="G60" s="3">
+        <v>0</v>
+      </c>
+      <c r="H60" s="3">
         <v>2300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2100</v>
-      </c>
-      <c r="J60" s="3">
-        <v>2000</v>
       </c>
       <c r="K60" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2109,8 +2252,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2138,8 +2284,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2167,8 +2316,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2196,8 +2348,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2225,37 +2380,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E66" s="3">
         <v>100</v>
       </c>
-      <c r="E66" s="3">
-        <v>0</v>
-      </c>
       <c r="F66" s="3">
         <v>0</v>
       </c>
       <c r="G66" s="3">
+        <v>0</v>
+      </c>
+      <c r="H66" s="3">
         <v>2300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2100</v>
-      </c>
-      <c r="J66" s="3">
-        <v>2000</v>
       </c>
       <c r="K66" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2267,8 +2428,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2296,8 +2458,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2325,8 +2490,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2354,8 +2522,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2383,37 +2554,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1200</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-1000</v>
       </c>
       <c r="F72" s="3">
         <v>-1000</v>
       </c>
       <c r="G72" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H72" s="3">
         <v>-3300</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-3100</v>
       </c>
       <c r="I72" s="3">
         <v>-3100</v>
       </c>
       <c r="J72" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-3000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2441,8 +2618,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2470,8 +2650,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2499,37 +2682,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="3">
         <v>-100</v>
       </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
       <c r="F76" s="3">
         <v>0</v>
       </c>
       <c r="G76" s="3">
+        <v>0</v>
+      </c>
+      <c r="H76" s="3">
         <v>-2300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2557,71 +2746,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42277</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42185</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42094</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
         <v>0</v>
       </c>
       <c r="G81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
         <v>-100</v>
       </c>
       <c r="I81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-500</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-100</v>
       </c>
       <c r="K81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2633,8 +2831,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2656,14 +2855,17 @@
       <c r="I83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2691,8 +2893,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2720,8 +2925,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2749,8 +2957,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2778,8 +2989,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2807,13 +3021,16 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>0</v>
+      <c r="D89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -2828,16 +3045,19 @@
         <v>0</v>
       </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-400</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-100</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2849,8 +3069,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2878,8 +3099,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2907,8 +3131,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2936,8 +3163,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2965,8 +3195,11 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2978,8 +3211,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3007,8 +3241,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3036,8 +3273,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3065,8 +3305,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3094,13 +3337,16 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -3115,16 +3361,19 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>400</v>
-      </c>
-      <c r="J100" s="3">
-        <v>100</v>
       </c>
       <c r="K100" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3137,8 +3386,8 @@
       <c r="F101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
+      <c r="G101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -3152,13 +3401,16 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>0</v>
+      <c r="D102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -3179,6 +3431,9 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AWCA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AWCA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
   <si>
     <t>AWCA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,72 +665,79 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42277</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42185</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42094</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -747,8 +754,14 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -773,14 +786,20 @@
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -805,14 +824,20 @@
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,8 +850,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -857,8 +884,14 @@
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -889,8 +922,14 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -915,14 +954,20 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -947,14 +992,20 @@
       <c r="J15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="K15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -964,25 +1015,27 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>400</v>
+      </c>
+      <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I17" s="3">
         <v>0</v>
@@ -991,30 +1044,36 @@
         <v>100</v>
       </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
+      <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-100</v>
       </c>
       <c r="H18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
         <v>0</v>
@@ -1023,13 +1082,19 @@
         <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1042,22 +1107,24 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1074,16 +1141,22 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>-400</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
@@ -1097,17 +1170,23 @@
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
+      <c r="J21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1138,25 +1217,31 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>400</v>
+        <v>-1900</v>
       </c>
       <c r="E23" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
         <v>0</v>
@@ -1165,13 +1250,19 @@
         <v>-100</v>
       </c>
       <c r="K23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1202,8 +1293,14 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1234,25 +1331,31 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-1900</v>
       </c>
       <c r="E26" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
         <v>0</v>
@@ -1261,30 +1364,36 @@
         <v>-100</v>
       </c>
       <c r="K26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-1900</v>
       </c>
       <c r="E27" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
         <v>0</v>
@@ -1293,13 +1402,19 @@
         <v>-100</v>
       </c>
       <c r="K27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1330,8 +1445,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1347,23 +1468,29 @@
       <c r="G29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-400</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L29" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N29" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1394,8 +1521,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1426,22 +1559,28 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -1458,40 +1597,52 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-1900</v>
       </c>
       <c r="E33" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1522,77 +1673,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-1900</v>
       </c>
       <c r="E35" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42277</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42185</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42094</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1605,8 +1774,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1619,28 +1790,30 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>4</v>
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>500</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
+      <c r="H41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
@@ -1651,8 +1824,14 @@
       <c r="L41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1683,8 +1862,14 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1715,31 +1900,37 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>11100</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
+        <v>11400</v>
       </c>
       <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>11400</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -1747,13 +1938,19 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
+      <c r="D45" s="3">
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -1779,19 +1976,25 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>4</v>
+      <c r="D46" s="3">
+        <v>11200</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>11400</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>11900</v>
       </c>
       <c r="G46" s="3">
         <v>0</v>
@@ -1811,8 +2014,14 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1822,20 +2031,20 @@
       <c r="E47" s="3">
         <v>0</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -1843,19 +2052,25 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
+      <c r="D48" s="3">
+        <v>400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>400</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>4</v>
@@ -1869,14 +2084,20 @@
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1907,8 +2128,14 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1939,8 +2166,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1971,8 +2204,14 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2003,8 +2242,14 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2035,19 +2280,25 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>4</v>
+      <c r="D54" s="3">
+        <v>11600</v>
       </c>
       <c r="E54" s="3">
-        <v>0</v>
+        <v>11900</v>
       </c>
       <c r="F54" s="3">
-        <v>0</v>
+        <v>11900</v>
       </c>
       <c r="G54" s="3">
         <v>0</v>
@@ -2067,8 +2318,14 @@
       <c r="L54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2081,8 +2338,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2095,28 +2354,30 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
+        <v>200</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
       <c r="H57" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I57" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J57" s="3">
         <v>200</v>
@@ -2125,106 +2386,130 @@
         <v>200</v>
       </c>
       <c r="L57" s="3">
+        <v>200</v>
+      </c>
+      <c r="M57" s="3">
+        <v>200</v>
+      </c>
+      <c r="N57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
+      <c r="D58" s="3">
+        <v>2600</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M58" s="3">
         <v>500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H59" s="3">
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="3">
         <v>2100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F60" s="3">
         <v>2900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>100</v>
       </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
-      <c r="G60" s="3">
-        <v>0</v>
-      </c>
       <c r="H60" s="3">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3">
+        <v>0</v>
+      </c>
+      <c r="J60" s="3">
         <v>2300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2255,31 +2540,37 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -2287,8 +2578,14 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2319,8 +2616,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2351,8 +2654,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2383,40 +2692,52 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F66" s="3">
         <v>2900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>100</v>
       </c>
-      <c r="F66" s="3">
-        <v>0</v>
-      </c>
-      <c r="G66" s="3">
-        <v>0</v>
-      </c>
       <c r="H66" s="3">
+        <v>0</v>
+      </c>
+      <c r="I66" s="3">
+        <v>0</v>
+      </c>
+      <c r="J66" s="3">
         <v>2300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2429,8 +2750,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2461,8 +2784,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2493,8 +2822,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2525,8 +2860,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2557,40 +2898,52 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-1300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-1200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-1000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-1000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-3300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-3100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-3100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-3000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2621,8 +2974,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2653,8 +3012,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2685,40 +3050,52 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>4</v>
+      <c r="D76" s="3">
+        <v>6600</v>
       </c>
       <c r="E76" s="3">
-        <v>-100</v>
+        <v>8800</v>
       </c>
       <c r="F76" s="3">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="G76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H76" s="3">
+        <v>0</v>
+      </c>
+      <c r="I76" s="3">
+        <v>0</v>
+      </c>
+      <c r="J76" s="3">
         <v>-2300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-2200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-2100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-2000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2749,77 +3126,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42277</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42185</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42094</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-1900</v>
       </c>
       <c r="E81" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2832,16 +3227,18 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>4</v>
@@ -2858,14 +3255,20 @@
       <c r="J83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2896,8 +3299,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2928,8 +3337,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2960,8 +3375,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2992,8 +3413,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3024,19 +3451,25 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>4</v>
+      <c r="D89" s="3">
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
@@ -3048,16 +3481,22 @@
         <v>0</v>
       </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3070,8 +3509,10 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3081,20 +3522,20 @@
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3102,8 +3543,14 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3134,8 +3581,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3166,8 +3619,14 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3177,20 +3636,20 @@
       <c r="E94" s="3">
         <v>0</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -3198,8 +3657,14 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3212,8 +3677,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3244,8 +3711,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3276,8 +3749,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3308,8 +3787,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3340,19 +3825,25 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -3364,16 +3855,22 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3389,11 +3886,11 @@
       <c r="G101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
+      <c r="H101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
@@ -3404,19 +3901,25 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>4</v>
+      <c r="D102" s="3">
+        <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
@@ -3434,6 +3937,12 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AWCA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AWCA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="92">
   <si>
     <t>AWCA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,70 +665,74 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42277</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42185</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42094</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>100</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -739,14 +743,14 @@
       <c r="G8" s="3">
         <v>0</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -760,8 +764,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -792,14 +799,17 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -830,14 +840,17 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,8 +865,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,8 +904,11 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,8 +945,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -960,14 +980,17 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -998,14 +1021,17 @@
       <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1017,84 +1043,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E17" s="3">
         <v>1900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>400</v>
-      </c>
-      <c r="F17" s="3">
-        <v>100</v>
       </c>
       <c r="G17" s="3">
         <v>100</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
       <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M17" s="3">
         <v>100</v>
       </c>
       <c r="N17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-1500</v>
       </c>
       <c r="E18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-400</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-100</v>
       </c>
       <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3">
         <v>-100</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1109,13 +1142,14 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1126,14 +1160,14 @@
       <c r="G20" s="3">
         <v>0</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
+      <c r="H20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1147,20 +1181,23 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-1500</v>
       </c>
       <c r="E21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1176,17 +1213,20 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1223,46 +1263,52 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-400</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-100</v>
       </c>
       <c r="G23" s="3">
         <v>-100</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3">
         <v>-100</v>
       </c>
       <c r="N23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1299,8 +1345,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1337,84 +1386,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-400</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-100</v>
       </c>
       <c r="G26" s="3">
         <v>-100</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M26" s="3">
         <v>-100</v>
       </c>
       <c r="N26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-400</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-100</v>
       </c>
       <c r="G27" s="3">
         <v>-100</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M27" s="3">
         <v>-100</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1451,8 +1509,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1474,23 +1535,26 @@
       <c r="I29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-400</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O29" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1527,8 +1591,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1565,13 +1632,16 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1582,14 +1652,14 @@
       <c r="G32" s="3">
         <v>0</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
+      <c r="H32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -1603,46 +1673,52 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-400</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-100</v>
       </c>
       <c r="G33" s="3">
         <v>-100</v>
       </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
       <c r="J33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
         <v>-100</v>
       </c>
       <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M33" s="3">
         <v>-500</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-100</v>
       </c>
       <c r="N33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1679,89 +1755,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-400</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-100</v>
       </c>
       <c r="G35" s="3">
         <v>-100</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
       <c r="J35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
         <v>-100</v>
       </c>
       <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M35" s="3">
         <v>-500</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-100</v>
       </c>
       <c r="N35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42277</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42185</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42094</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1776,8 +1861,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1792,8 +1878,9 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1804,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
+      <c r="J41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
@@ -1830,8 +1917,11 @@
       <c r="N41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1868,8 +1958,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1906,8 +1999,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1915,13 +2011,13 @@
         <v>11100</v>
       </c>
       <c r="E44" s="3">
-        <v>11400</v>
+        <v>11100</v>
       </c>
       <c r="F44" s="3">
         <v>11400</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
+      <c r="G44" s="3">
+        <v>11400</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>4</v>
@@ -1932,8 +2028,8 @@
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -1944,13 +2040,16 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -1982,23 +2081,26 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E46" s="3">
         <v>11200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>11400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>11900</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
       <c r="H46" s="3">
         <v>0</v>
       </c>
@@ -2020,8 +2122,11 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2031,8 +2136,8 @@
       <c r="E47" s="3">
         <v>0</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
+      <c r="F47" s="3">
+        <v>0</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>4</v>
@@ -2046,8 +2151,8 @@
       <c r="J47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2058,8 +2163,11 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2070,10 +2178,10 @@
         <v>400</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
+        <v>400</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>4</v>
@@ -2090,14 +2198,17 @@
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2134,8 +2245,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2172,8 +2286,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2210,8 +2327,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2248,8 +2368,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2286,22 +2409,25 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E54" s="3">
         <v>11600</v>
-      </c>
-      <c r="E54" s="3">
-        <v>11900</v>
       </c>
       <c r="F54" s="3">
         <v>11900</v>
       </c>
       <c r="G54" s="3">
-        <v>0</v>
+        <v>11900</v>
       </c>
       <c r="H54" s="3">
         <v>0</v>
@@ -2324,8 +2450,11 @@
       <c r="N54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2340,8 +2469,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2356,8 +2486,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2365,22 +2496,22 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
+        <v>100</v>
+      </c>
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
       <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
       <c r="I57" s="3">
         <v>0</v>
       </c>
       <c r="J57" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
@@ -2392,10 +2523,13 @@
         <v>200</v>
       </c>
       <c r="N57" s="3">
+        <v>200</v>
+      </c>
+      <c r="O57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2406,19 +2540,19 @@
         <v>2600</v>
       </c>
       <c r="F58" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G58" s="3">
         <v>2900</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
@@ -2426,90 +2560,99 @@
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M58" s="3">
-        <v>500</v>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N58" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E59" s="3">
         <v>1900</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
       <c r="F59" s="3">
         <v>0</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
+      <c r="H59" s="3">
+        <v>0</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J59" s="3">
+      <c r="J59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K59" s="3">
         <v>2100</v>
-      </c>
-      <c r="K59" s="3">
-        <v>2000</v>
       </c>
       <c r="L59" s="3">
         <v>2000</v>
       </c>
       <c r="M59" s="3">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="N59" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E60" s="3">
         <v>4700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>100</v>
       </c>
-      <c r="H60" s="3">
-        <v>0</v>
-      </c>
       <c r="I60" s="3">
         <v>0</v>
       </c>
       <c r="J60" s="3">
+        <v>0</v>
+      </c>
+      <c r="K60" s="3">
         <v>2300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2100</v>
-      </c>
-      <c r="M60" s="3">
-        <v>2000</v>
       </c>
       <c r="N60" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2546,8 +2689,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2557,8 +2703,8 @@
       <c r="E62" s="3">
         <v>300</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
+      <c r="F62" s="3">
+        <v>300</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
@@ -2572,8 +2718,8 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -2584,8 +2730,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2622,8 +2771,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2660,8 +2812,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2698,46 +2853,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E66" s="3">
         <v>4900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>100</v>
       </c>
-      <c r="H66" s="3">
-        <v>0</v>
-      </c>
       <c r="I66" s="3">
         <v>0</v>
       </c>
       <c r="J66" s="3">
+        <v>0</v>
+      </c>
+      <c r="K66" s="3">
         <v>2300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2100</v>
-      </c>
-      <c r="M66" s="3">
-        <v>2000</v>
       </c>
       <c r="N66" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2752,8 +2913,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2790,8 +2952,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2828,8 +2993,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2866,8 +3034,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2904,46 +3075,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1200</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-1000</v>
       </c>
       <c r="I72" s="3">
         <v>-1000</v>
       </c>
       <c r="J72" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-3300</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-3100</v>
       </c>
       <c r="L72" s="3">
         <v>-3100</v>
       </c>
       <c r="M72" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="N72" s="3">
         <v>-3000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2980,8 +3157,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3018,8 +3198,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3056,46 +3239,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="3">
         <v>6600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-100</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
       <c r="I76" s="3">
         <v>0</v>
       </c>
       <c r="J76" s="3">
+        <v>0</v>
+      </c>
+      <c r="K76" s="3">
         <v>-2300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3132,89 +3321,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42277</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42185</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42094</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-400</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-100</v>
       </c>
       <c r="G81" s="3">
         <v>-100</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
       <c r="J81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K81" s="3">
         <v>-100</v>
       </c>
       <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M81" s="3">
         <v>-500</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-100</v>
       </c>
       <c r="N81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3229,8 +3427,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3240,8 +3439,8 @@
       <c r="E83" s="3">
         <v>0</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>4</v>
@@ -3261,14 +3460,17 @@
       <c r="L83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3305,8 +3507,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3343,8 +3548,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3381,8 +3589,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3419,8 +3630,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3457,23 +3671,26 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
@@ -3487,16 +3704,19 @@
         <v>0</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-400</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-100</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3511,8 +3731,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3522,23 +3743,23 @@
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -3549,8 +3770,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3587,8 +3811,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3625,19 +3852,22 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
@@ -3651,8 +3881,8 @@
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -3663,8 +3893,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3679,8 +3912,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3717,8 +3951,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3755,8 +3992,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3793,8 +4033,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3831,23 +4074,26 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -3861,16 +4107,19 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>400</v>
-      </c>
-      <c r="M100" s="3">
-        <v>100</v>
       </c>
       <c r="N100" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3892,8 +4141,8 @@
       <c r="I101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="J101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -3907,23 +4156,26 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>0</v>
+      <c r="D102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>500</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -3943,6 +4195,9 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AWCA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AWCA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
   <si>
     <t>AWCA</t>
   </si>
@@ -1394,8 +1394,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-1500</v>
       </c>
       <c r="E26" s="3">
         <v>-1900</v>
@@ -1435,8 +1435,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-1500</v>
       </c>
       <c r="E27" s="3">
         <v>-1900</v>
@@ -1681,8 +1681,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-1500</v>
       </c>
       <c r="E33" s="3">
         <v>-1900</v>
@@ -1763,8 +1763,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-1500</v>
       </c>
       <c r="E35" s="3">
         <v>-1900</v>
@@ -3247,8 +3247,8 @@
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>4</v>
+      <c r="D76" s="3">
+        <v>6400</v>
       </c>
       <c r="E76" s="3">
         <v>6600</v>
@@ -3375,8 +3375,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-1500</v>
       </c>
       <c r="E81" s="3">
         <v>-1900</v>
@@ -3861,7 +3861,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4164,8 +4164,8 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>4</v>
+      <c r="D102" s="3">
+        <v>0</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/AWCA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AWCA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
   <si>
     <t>AWCA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,86 +665,90 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42369</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42277</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42185</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42094</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
+      <c r="H8" s="3">
+        <v>0</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>4</v>
@@ -752,8 +756,8 @@
       <c r="J8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -767,8 +771,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -802,14 +809,17 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -843,14 +853,17 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -866,8 +879,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -907,8 +921,11 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -948,8 +965,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -983,14 +1003,17 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1024,14 +1047,17 @@
       <c r="M15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1044,90 +1070,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
         <v>1600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>400</v>
-      </c>
-      <c r="G17" s="3">
-        <v>100</v>
       </c>
       <c r="H17" s="3">
         <v>100</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J17" s="3">
         <v>0</v>
       </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N17" s="3">
         <v>100</v>
       </c>
       <c r="O17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3">
         <v>-100</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1143,13 +1176,14 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1160,8 +1194,8 @@
       <c r="G20" s="3">
         <v>0</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
+      <c r="H20" s="3">
+        <v>0</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>4</v>
@@ -1169,8 +1203,8 @@
       <c r="J20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
+      <c r="K20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -1184,23 +1218,26 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-400</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1216,17 +1253,20 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1266,49 +1306,55 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-100</v>
       </c>
       <c r="H23" s="3">
         <v>-100</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N23" s="3">
         <v>-100</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1348,8 +1394,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1389,90 +1438,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-100</v>
       </c>
       <c r="H26" s="3">
         <v>-100</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N26" s="3">
         <v>-100</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-100</v>
       </c>
       <c r="H27" s="3">
         <v>-100</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3">
         <v>-100</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1512,8 +1570,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1538,23 +1599,26 @@
       <c r="J29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-400</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P29" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1594,8 +1658,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1635,13 +1702,16 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1652,8 +1722,8 @@
       <c r="G32" s="3">
         <v>0</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
+      <c r="H32" s="3">
+        <v>0</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>4</v>
@@ -1661,8 +1731,8 @@
       <c r="J32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
+      <c r="K32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -1676,49 +1746,55 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-100</v>
       </c>
       <c r="H33" s="3">
         <v>-100</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
       <c r="K33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3">
         <v>-100</v>
       </c>
       <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N33" s="3">
         <v>-500</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-100</v>
       </c>
       <c r="O33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1758,95 +1834,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-100</v>
       </c>
       <c r="H35" s="3">
         <v>-100</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
       <c r="K35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L35" s="3">
         <v>-100</v>
       </c>
       <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N35" s="3">
         <v>-500</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-100</v>
       </c>
       <c r="O35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42369</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42277</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42185</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42094</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1862,8 +1947,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1879,8 +1965,9 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1894,19 +1981,19 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>500</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
+      <c r="K41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
@@ -1920,8 +2007,11 @@
       <c r="O41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1961,8 +2051,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2002,25 +2095,28 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>11100</v>
+        <v>11300</v>
       </c>
       <c r="E44" s="3">
         <v>11100</v>
       </c>
       <c r="F44" s="3">
-        <v>11400</v>
+        <v>11100</v>
       </c>
       <c r="G44" s="3">
         <v>11400</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
+      <c r="H44" s="3">
+        <v>11400</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>4</v>
@@ -2031,8 +2127,8 @@
       <c r="K44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -2043,17 +2139,20 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
@@ -2084,8 +2183,11 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2093,17 +2195,17 @@
         <v>11300</v>
       </c>
       <c r="E46" s="3">
+        <v>11300</v>
+      </c>
+      <c r="F46" s="3">
         <v>11200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>11400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>11900</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
       <c r="I46" s="3">
         <v>0</v>
       </c>
@@ -2125,8 +2227,11 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2139,8 +2244,8 @@
       <c r="F47" s="3">
         <v>0</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
+      <c r="G47" s="3">
+        <v>0</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>4</v>
@@ -2154,8 +2259,8 @@
       <c r="K47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2166,8 +2271,11 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2181,10 +2289,10 @@
         <v>400</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
+        <v>400</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>4</v>
@@ -2201,14 +2309,17 @@
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2248,8 +2359,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2289,8 +2403,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2330,8 +2447,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2371,8 +2491,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2412,8 +2535,11 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2421,16 +2547,16 @@
         <v>11700</v>
       </c>
       <c r="E54" s="3">
+        <v>11700</v>
+      </c>
+      <c r="F54" s="3">
         <v>11600</v>
-      </c>
-      <c r="F54" s="3">
-        <v>11900</v>
       </c>
       <c r="G54" s="3">
         <v>11900</v>
       </c>
       <c r="H54" s="3">
-        <v>0</v>
+        <v>11900</v>
       </c>
       <c r="I54" s="3">
         <v>0</v>
@@ -2453,8 +2579,11 @@
       <c r="O54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2470,8 +2599,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2487,34 +2617,35 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
       </c>
       <c r="F57" s="3">
+        <v>100</v>
+      </c>
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
       <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
       <c r="J57" s="3">
         <v>0</v>
       </c>
       <c r="K57" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L57" s="3">
         <v>200</v>
@@ -2526,10 +2657,13 @@
         <v>200</v>
       </c>
       <c r="O57" s="3">
+        <v>200</v>
+      </c>
+      <c r="P57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2543,19 +2677,19 @@
         <v>2600</v>
       </c>
       <c r="G58" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H58" s="3">
         <v>2900</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
+      <c r="K58" s="3">
+        <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
@@ -2563,96 +2697,105 @@
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N58" s="3">
-        <v>500</v>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O58" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1900</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
       <c r="G59" s="3">
         <v>0</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
+      <c r="I59" s="3">
+        <v>0</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="3">
         <v>2100</v>
-      </c>
-      <c r="L59" s="3">
-        <v>2000</v>
       </c>
       <c r="M59" s="3">
         <v>2000</v>
       </c>
       <c r="N59" s="3">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="O59" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E60" s="3">
         <v>5100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>100</v>
       </c>
-      <c r="I60" s="3">
-        <v>0</v>
-      </c>
       <c r="J60" s="3">
         <v>0</v>
       </c>
       <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3">
         <v>2300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2100</v>
-      </c>
-      <c r="N60" s="3">
-        <v>2000</v>
       </c>
       <c r="O60" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2692,8 +2835,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2706,8 +2852,8 @@
       <c r="F62" s="3">
         <v>300</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
+      <c r="G62" s="3">
+        <v>300</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
@@ -2721,8 +2867,8 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -2733,8 +2879,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2774,8 +2923,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2815,8 +2967,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2856,49 +3011,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E66" s="3">
         <v>5300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>100</v>
       </c>
-      <c r="I66" s="3">
-        <v>0</v>
-      </c>
       <c r="J66" s="3">
         <v>0</v>
       </c>
       <c r="K66" s="3">
+        <v>0</v>
+      </c>
+      <c r="L66" s="3">
         <v>2300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2100</v>
-      </c>
-      <c r="N66" s="3">
-        <v>2000</v>
       </c>
       <c r="O66" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2914,8 +3075,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2955,8 +3117,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2996,8 +3161,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3037,8 +3205,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3078,49 +3249,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1200</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-1000</v>
       </c>
       <c r="J72" s="3">
         <v>-1000</v>
       </c>
       <c r="K72" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L72" s="3">
         <v>-3300</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-3100</v>
       </c>
       <c r="M72" s="3">
         <v>-3100</v>
       </c>
       <c r="N72" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="O72" s="3">
         <v>-3000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3160,8 +3337,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3201,8 +3381,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3242,49 +3425,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E76" s="3">
         <v>6400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-100</v>
       </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
       <c r="J76" s="3">
         <v>0</v>
       </c>
       <c r="K76" s="3">
+        <v>0</v>
+      </c>
+      <c r="L76" s="3">
         <v>-2300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3324,95 +3513,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42369</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42277</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42185</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42094</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-100</v>
       </c>
       <c r="H81" s="3">
         <v>-100</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
       <c r="K81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L81" s="3">
         <v>-100</v>
       </c>
       <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N81" s="3">
         <v>-500</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-100</v>
       </c>
       <c r="O81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3428,8 +3626,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3442,8 +3641,8 @@
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
+      <c r="G83" s="3">
+        <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>4</v>
@@ -3463,14 +3662,17 @@
       <c r="M83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3510,8 +3712,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3551,8 +3756,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3592,8 +3800,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3633,8 +3844,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3674,26 +3888,29 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
@@ -3707,16 +3924,19 @@
         <v>0</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-400</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-100</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3732,8 +3952,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3758,11 +3979,11 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -3773,8 +3994,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3814,8 +4038,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3855,8 +4082,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3869,8 +4099,8 @@
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
@@ -3884,8 +4114,8 @@
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -3896,8 +4126,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3913,8 +4146,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3954,8 +4188,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3995,8 +4232,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4036,8 +4276,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4077,26 +4320,29 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -4110,42 +4356,45 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>400</v>
-      </c>
-      <c r="N100" s="3">
-        <v>100</v>
       </c>
       <c r="O100" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -4159,8 +4408,11 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4171,14 +4423,14 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>500</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -4198,6 +4450,9 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>
